--- a/Training NN/Datasets/Personal Dataset/personal_dataset Empty.xlsx
+++ b/Training NN/Datasets/Personal Dataset/personal_dataset Empty.xlsx
@@ -1,19 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liamo\Documents\FYP\Training NN\Datasets\Personal Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{687B0C6A-9DC1-4559-BE09-8452899F3685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0600D776-602B-4B53-ADB7-69BA3317D45C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6990" yWindow="1545" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="A" sheetId="1" r:id="rId1"/>
+    <sheet name="B" sheetId="2" r:id="rId2"/>
+    <sheet name="C" sheetId="3" r:id="rId3"/>
+    <sheet name="D" sheetId="4" r:id="rId4"/>
+    <sheet name="E" sheetId="5" r:id="rId5"/>
+    <sheet name="F" sheetId="6" r:id="rId6"/>
+    <sheet name="G" sheetId="7" r:id="rId7"/>
+    <sheet name="H" sheetId="8" r:id="rId8"/>
+    <sheet name="I" sheetId="9" r:id="rId9"/>
+    <sheet name="J" sheetId="10" r:id="rId10"/>
+    <sheet name="K" sheetId="11" r:id="rId11"/>
+    <sheet name="L" sheetId="12" r:id="rId12"/>
+    <sheet name="M" sheetId="13" r:id="rId13"/>
+    <sheet name="N" sheetId="14" r:id="rId14"/>
+    <sheet name="O" sheetId="15" r:id="rId15"/>
+    <sheet name="P" sheetId="16" r:id="rId16"/>
+    <sheet name="Q" sheetId="17" r:id="rId17"/>
+    <sheet name="R" sheetId="18" r:id="rId18"/>
+    <sheet name="S" sheetId="19" r:id="rId19"/>
+    <sheet name="T" sheetId="20" r:id="rId20"/>
+    <sheet name="U" sheetId="21" r:id="rId21"/>
+    <sheet name="V" sheetId="22" r:id="rId22"/>
+    <sheet name="W" sheetId="23" r:id="rId23"/>
+    <sheet name="X" sheetId="24" r:id="rId24"/>
+    <sheet name="Y" sheetId="25" r:id="rId25"/>
+    <sheet name="Z" sheetId="26" r:id="rId26"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,10 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
-  <si>
-    <t>Letter</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="43">
   <si>
     <t>x1</t>
   </si>
@@ -163,7 +185,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,6 +195,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -198,8 +227,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -480,23 +510,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AR1"/>
+  <dimension ref="A1:AQ1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ1" workbookViewId="0">
-      <selection activeCell="AR2" sqref="AR2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="B1" t="s">
         <v>41</v>
       </c>
       <c r="C1" t="s">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -616,14 +646,3661 @@
         <v>39</v>
       </c>
       <c r="AQ1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{600CA6B0-86D7-4464-97CE-33632C7BB06D}">
+  <dimension ref="A1:AQ1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" t="s">
+        <v>20</v>
+      </c>
+      <c r="X1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EAFAE52-73EC-44E0-A63F-FE75F32DEF89}">
+  <dimension ref="A1:AQ1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" t="s">
+        <v>20</v>
+      </c>
+      <c r="X1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{374CD8E1-A28A-4CA4-B0E8-20F07CFF82A8}">
+  <dimension ref="A1:AQ1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" t="s">
+        <v>20</v>
+      </c>
+      <c r="X1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0D4E791-84AD-4A6F-A820-DBD30FE0AD2A}">
+  <dimension ref="A1:AQ1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" t="s">
+        <v>20</v>
+      </c>
+      <c r="X1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1D11B16-E605-4098-B9B0-04BA6F408440}">
+  <dimension ref="A1:AQ1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" t="s">
+        <v>20</v>
+      </c>
+      <c r="X1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9419B172-EC69-4413-B1E7-89BDDED86C4B}">
+  <dimension ref="A1:AQ1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" t="s">
+        <v>20</v>
+      </c>
+      <c r="X1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{868E1544-EC40-4A88-8568-559A5531940E}">
+  <dimension ref="A1:AQ1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" t="s">
+        <v>20</v>
+      </c>
+      <c r="X1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D81AB0A-8E29-4988-A457-1F8230121446}">
+  <dimension ref="A1:AQ1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" t="s">
+        <v>20</v>
+      </c>
+      <c r="X1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F75BF4F-E0AA-42D6-8A41-BB8F5C35CE49}">
+  <dimension ref="A1:AQ1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" t="s">
+        <v>20</v>
+      </c>
+      <c r="X1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{088A32A1-DB65-42DF-B3EF-8F3B97D2C70E}">
+  <dimension ref="A1:AQ1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" t="s">
+        <v>20</v>
+      </c>
+      <c r="X1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22CD8979-6DF3-470D-B9E2-E9955EA92A6F}">
+  <dimension ref="A1:AQ1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" t="s">
+        <v>20</v>
+      </c>
+      <c r="X1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C0CF336-53B1-4920-803C-3130D4255AFB}">
+  <dimension ref="A1:AQ1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AT3" sqref="AT3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB9B3C74-D136-422C-A851-4EBB19BF81DB}">
+  <dimension ref="A1:AQ1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:AQ1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F70D0D0-257A-4818-BB1A-807D773EF9B5}">
+  <dimension ref="A1:AQ1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:AQ1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{355A89F2-9CD9-4EC0-93DC-605E215DDCC9}">
+  <dimension ref="A1:AQ1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:AQ1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91272864-27EB-4329-8CEA-2E4ACB99251C}">
+  <dimension ref="A1:AQ1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:AQ1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98F01D16-45CF-452F-A686-9AA8A74AAA41}">
+  <dimension ref="A1:AQ1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:AQ1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C84234F-A47E-4533-8F94-8CF8020B91E9}">
+  <dimension ref="A1:AQ1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:AQ1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48952F82-F4EF-4124-B72D-85F14D854CD9}">
+  <dimension ref="A1:AQ1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" t="s">
+        <v>20</v>
+      </c>
+      <c r="X1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9FF9E58-1DC2-486A-B3E0-3704416CE2E2}">
+  <dimension ref="A1:AQ1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" t="s">
+        <v>20</v>
+      </c>
+      <c r="X1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7105081-B9E0-427B-B9BA-132F42810DA5}">
+  <dimension ref="A1:AQ1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" t="s">
+        <v>20</v>
+      </c>
+      <c r="X1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F29339FE-00EE-4ED7-A38F-FDEDEC49F9E4}">
+  <dimension ref="A1:AQ1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" t="s">
+        <v>20</v>
+      </c>
+      <c r="X1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F2A74AE-A7BA-499A-ABCF-CB2E23B7394D}">
+  <dimension ref="A1:AQ1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" t="s">
+        <v>20</v>
+      </c>
+      <c r="X1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A40873C3-C65C-4758-B1E8-680A79A2CF67}">
+  <dimension ref="A1:AQ1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" t="s">
+        <v>20</v>
+      </c>
+      <c r="X1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA79EC10-7F86-4419-9CC0-FE33DEFBEF23}">
+  <dimension ref="A1:AQ1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" t="s">
+        <v>20</v>
+      </c>
+      <c r="X1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>